--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2CC8532-8AF5-4472-91D3-66BA3431ED6D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{D328B936-06D2-4298-8502-C30F634398D9}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -39,17 +49,20 @@
     <t>Saccharina.latissima</t>
   </si>
   <si>
+    <t>Fucus.sp</t>
+  </si>
+  <si>
+    <t>Nereocystis.luetkeana</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Fucus.sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,18 +373,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,10 +398,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -399,10 +415,24 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{D328B936-06D2-4298-8502-C30F634398D9}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{45A392D3-FA9E-48FB-86B4-FFFC51A56A71}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>year</t>
   </si>
@@ -56,13 +56,16 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Mazealla.splendens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,18 +376,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +407,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -421,7 +428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -432,6 +439,34 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{45A392D3-FA9E-48FB-86B4-FFFC51A56A71}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D87308-72AD-40DC-8FF7-E2BEB3C36D23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,13 +379,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D87308-72AD-40DC-8FF7-E2BEB3C36D23}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD592D9C-C5D0-46F7-AC25-15AC107DC021}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -49,16 +49,10 @@
     <t>Saccharina.latissima</t>
   </si>
   <si>
-    <t>Fucus.sp</t>
-  </si>
-  <si>
     <t>Nereocystis.luetkeana</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Mazealla.splendens</t>
   </si>
 </sst>
 </file>
@@ -376,20 +370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +398,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -423,13 +410,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -439,11 +423,11 @@
       <c r="C3">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -451,7 +435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -462,13 +446,35 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD592D9C-C5D0-46F7-AC25-15AC107DC021}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45FAC2C-511D-45A5-9A7C-77A70600135E}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45FAC2C-511D-45A5-9A7C-77A70600135E}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D68BC0F-D714-4ED2-AE4E-8BA864AF491D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +491,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GW_seaweed_reproductive_timing.xlsx
+++ b/GW_seaweed_reproductive_timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45FAC2C-511D-45A5-9A7C-77A70600135E}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC104848C1586FFC5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3BB811-C9A7-4A62-9EB2-142A7571F3BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +491,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
